--- a/design/2016/models/RequestAndSkillMatrix.xlsx
+++ b/design/2016/models/RequestAndSkillMatrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RITS-ETrobo\2016\Yokohama\design\2016\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\etrobo\Yokohama\design\2016\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Rコースを攻略する</t>
     <rPh sb="5" eb="7">
@@ -85,9 +85,6 @@
     <t>走行体の向きを補正する</t>
   </si>
   <si>
-    <t>地図情報を使う</t>
-  </si>
-  <si>
     <t>自己位置推定の精度を維持する</t>
   </si>
   <si>
@@ -129,6 +126,132 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>移動対象決定</t>
+    <rPh sb="0" eb="4">
+      <t>イドウタイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック配置の記録</t>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己位置推定機能</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スイテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最短経路算出</t>
+    <rPh sb="0" eb="2">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>座標指定移動</t>
+    <rPh sb="0" eb="2">
+      <t>ザヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最適速度算出</t>
+    <rPh sb="0" eb="2">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色認識</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーム制御</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向き補正走行</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己位置補正</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求仕様</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>要素技術</t>
     <rPh sb="0" eb="2">
       <t>ヨウソ</t>
@@ -139,129 +262,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動対象決定</t>
-    <rPh sb="0" eb="4">
-      <t>イドウタイショウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロック配置の記録</t>
-    <rPh sb="4" eb="6">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自己位置推定機能</t>
-    <rPh sb="0" eb="2">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スイテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最短経路算出</t>
-    <rPh sb="0" eb="2">
-      <t>サイタン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケイロ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>座標指定移動</t>
-    <rPh sb="0" eb="2">
-      <t>ザヒョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最適速度算出</t>
-    <rPh sb="0" eb="2">
-      <t>サイテキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>色認識</t>
+    <t>地
+図
+情
+報
+を
+使
+う</t>
     <rPh sb="0" eb="1">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ニンシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アーム制御</t>
-    <rPh sb="3" eb="5">
-      <t>セイギョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>●</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>向き補正走行</t>
-    <rPh sb="0" eb="1">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自己位置補正</t>
-    <rPh sb="0" eb="2">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要求仕様</t>
+      <t>チ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ムク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -269,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,13 +308,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -304,12 +332,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FF9AFF64"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -317,36 +345,451 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,6 +797,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9AFF64"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -628,371 +1076,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O19"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.875" customWidth="1"/>
-    <col min="5" max="15" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="2.875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" ht="123" x14ac:dyDescent="0.15">
-      <c r="E3" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="25"/>
+    </row>
+    <row r="2" spans="1:14" ht="171" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="L2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="M2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+    <row r="3" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="D6" s="6" t="s">
+      <c r="D3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="30"/>
+      <c r="B5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="32"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="30"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5"/>
+      <c r="N6" s="33"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="30"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="D10" s="6" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="C11" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="34"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="30"/>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="D12" s="6" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="35"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="32"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="30"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="D14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="D15" s="6" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="D16" s="6" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
+      <c r="C14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="32"/>
+    </row>
+    <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="D18" s="6" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="34"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36"/>
+      <c r="B16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
+      <c r="C16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="39"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B13"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/design/2016/models/RequestAndSkillMatrix.xlsx
+++ b/design/2016/models/RequestAndSkillMatrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\etrobo\Yokohama\design\2016\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Yokohama\design\2016\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Rコースを攻略する</t>
     <rPh sb="5" eb="7">
@@ -248,41 +248,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要求仕様</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要素技術</t>
+    <t>地図情報を使う</t>
+    <rPh sb="0" eb="2">
+      <t>チズ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要求</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要素技術と参照先</t>
     <rPh sb="0" eb="2">
       <t>ヨウソ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ギジュツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>地
-図
-情
-報
-を
-使
-う</t>
-    <rPh sb="0" eb="1">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ムク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツカ</t>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -291,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +324,16 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,8 +346,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -368,14 +390,188 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -385,50 +581,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -441,15 +594,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -459,125 +623,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -586,22 +632,122 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -613,53 +759,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -670,126 +777,150 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,6 +930,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FF99CCFF"/>
       <color rgb="FF9AFF64"/>
     </mruColors>
   </colors>
@@ -1076,415 +1209,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C2"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="2.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.625" style="4" customWidth="1"/>
+    <col min="4" max="14" width="5.625" style="47" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="23" t="s">
+    </row>
+    <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="25"/>
+      <c r="E3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="31"/>
     </row>
-    <row r="2" spans="1:14" ht="171" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>37</v>
-      </c>
+    <row r="4" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="44"/>
     </row>
-    <row r="3" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="29"/>
-    </row>
-    <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+    <row r="5" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="32"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="30"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="33"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="45"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="33"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="15"/>
     </row>
-    <row r="8" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14" t="s">
+    <row r="9" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="34"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="30"/>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="35"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="44"/>
     </row>
-    <row r="10" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14" t="s">
+    <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="32"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="30"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c r="N12" s="45"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="38" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14" t="s">
+    <row r="14" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="31" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="30"/>
-      <c r="B14" s="16" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="32"/>
-    </row>
-    <row r="15" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="34"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="39"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="D1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
